--- a/Table_Processing/Filter_B.xlsx
+++ b/Table_Processing/Filter_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea/ContrastiveDecodingNew/Table_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666AC1BA-A825-C44E-AF9D-1429EF30EE9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE45751D-2D26-0540-B3B4-BBB707A4AA74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="500" windowWidth="24760" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,59 +118,59 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>417551</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>243415</xdr:colOff>
+      <xdr:colOff>305366</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="plot_107.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7232185" y="25400"/>
+          <a:ext cx="7383913" cy="3223012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>456189</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>306179</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="plot_107.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7086600" y="215900"/>
-          <a:ext cx="7291915" cy="3302000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>115457</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>108527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>646911</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:rowOff>179518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -193,8 +193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14056593" y="108527"/>
-          <a:ext cx="7833954" cy="3816928"/>
+          <a:off x="14085457" y="15600"/>
+          <a:ext cx="8027551" cy="3509284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -250,59 +250,59 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>460859</xdr:colOff>
+      <xdr:colOff>213055</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>520634</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>151270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="plot_467.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7027689" y="3271738"/>
+          <a:ext cx="7803677" cy="3384410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>427707</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>174177</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>86975</xdr:colOff>
+      <xdr:rowOff>43683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>281931</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>27368</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="plot_467.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7099495" y="3810995"/>
-          <a:ext cx="7592480" cy="3692055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>86975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>74658</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>622663</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57737</xdr:rowOff>
+      <xdr:rowOff>26762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -325,8 +325,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14028111" y="3913522"/>
-          <a:ext cx="7838188" cy="3821942"/>
+          <a:off x="14056975" y="3389049"/>
+          <a:ext cx="8031785" cy="3514298"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -382,62 +382,62 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>495265</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>128537</xdr:rowOff>
+      <xdr:colOff>247460</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>261531</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>13726</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="plot_532.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7062094" y="6695366"/>
+          <a:ext cx="7943827" cy="3460411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107008</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>585245</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="plot_532.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7133901" y="7604219"/>
-          <a:ext cx="7732630" cy="3768054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230911</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>113532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>27684</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Picture 9" descr="plot_615.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -457,8 +457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14172047" y="7791259"/>
-          <a:ext cx="7763137" cy="3783059"/>
+          <a:off x="14417740" y="6804264"/>
+          <a:ext cx="7974334" cy="3475415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,15 +514,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>580351</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>74660</xdr:rowOff>
+      <xdr:colOff>518400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>136611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>350258</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>193203</xdr:rowOff>
+      <xdr:colOff>288307</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>69301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -545,8 +545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7218987" y="11389205"/>
-          <a:ext cx="7736271" cy="3755362"/>
+          <a:off x="7333034" y="10172709"/>
+          <a:ext cx="7947468" cy="3463909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,15 +558,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>565342</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>43875</xdr:rowOff>
+      <xdr:colOff>317538</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>264858</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>144319</xdr:rowOff>
+      <xdr:colOff>17054</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>113343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -589,8 +589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14506478" y="11560466"/>
-          <a:ext cx="7665880" cy="3737262"/>
+          <a:off x="14628270" y="10234851"/>
+          <a:ext cx="7877077" cy="3445809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,103 +602,103 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>576240</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>18015</xdr:rowOff>
+      <xdr:colOff>545264</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>141918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>591669</xdr:colOff>
+      <xdr:colOff>560693</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>82367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="plot_830.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="545264" y="13523381"/>
+          <a:ext cx="7511527" cy="3285815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>303943</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>3080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>48576</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="plot_837.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800041" y="13570397"/>
+          <a:ext cx="7240730" cy="3156708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>498057</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>97151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>485050</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>144318</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="plot_830.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="576240" y="14969379"/>
-          <a:ext cx="7317929" cy="3561075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180040</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>34056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>606136</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>31251</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="plot_837.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7482540" y="15187465"/>
-          <a:ext cx="7064732" cy="3431968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>157326</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>4225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>144318</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>116314</xdr:rowOff>
+      <xdr:rowOff>23387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -721,8 +721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14762326" y="15157634"/>
-          <a:ext cx="7289492" cy="3546862"/>
+          <a:off x="14808789" y="13664468"/>
+          <a:ext cx="7483090" cy="3271602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -735,13 +735,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>541368</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>142298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>202748</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>103836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -765,8 +765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="541368" y="18528434"/>
-          <a:ext cx="6963880" cy="3396311"/>
+          <a:off x="541368" y="16683274"/>
+          <a:ext cx="7157478" cy="3121050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,14 +779,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>556151</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>16550</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>432248</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>74972</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>43997</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -809,8 +809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7194787" y="18604732"/>
-          <a:ext cx="7178597" cy="3493195"/>
+          <a:off x="7370785" y="16712404"/>
+          <a:ext cx="7372195" cy="3217934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,15 +822,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>152061</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>148542</xdr:rowOff>
+      <xdr:colOff>214012</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>513693</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>36956</xdr:rowOff>
+      <xdr:colOff>575644</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>160859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -853,8 +853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14093197" y="18736724"/>
-          <a:ext cx="7664132" cy="3727277"/>
+          <a:off x="14524744" y="16813421"/>
+          <a:ext cx="7857729" cy="3419633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,15 +866,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:colOff>92927</xdr:colOff>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>110596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>294268</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>186203</xdr:rowOff>
+      <xdr:colOff>387195</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -897,8 +897,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21931505"/>
-          <a:ext cx="7596768" cy="3712425"/>
+          <a:off x="92927" y="19811084"/>
+          <a:ext cx="7790366" cy="3420973"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="41" workbookViewId="0">
       <selection activeCell="W87" sqref="W87"/>
     </sheetView>
   </sheetViews>

--- a/Table_Processing/Filter_B.xlsx
+++ b/Table_Processing/Filter_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea/ContrastiveDecodingNew/Table_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE45751D-2D26-0540-B3B4-BBB707A4AA74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFC0060-C36C-C64C-9685-3AA283F73F33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="500" windowWidth="24760" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="-20440" windowWidth="24760" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter B" sheetId="1" r:id="rId1"/>
@@ -250,13 +250,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>213055</xdr:colOff>
+      <xdr:colOff>390855</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>112226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>520634</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12634</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>151270</xdr:rowOff>
     </xdr:to>
@@ -281,8 +281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7027689" y="3271738"/>
-          <a:ext cx="7803677" cy="3384410"/>
+          <a:off x="7248855" y="3566626"/>
+          <a:ext cx="7851379" cy="3696644"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,15 +558,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>317538</xdr:colOff>
+      <xdr:colOff>190538</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>12900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>17054</xdr:colOff>
+      <xdr:rowOff>38300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>575854</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>113343</xdr:rowOff>
+      <xdr:rowOff>138743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -589,8 +589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14628270" y="10234851"/>
-          <a:ext cx="7877077" cy="3445809"/>
+          <a:off x="14592338" y="11214300"/>
+          <a:ext cx="7929116" cy="3758043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,39 +646,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>303943</xdr:colOff>
+      <xdr:colOff>193257</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>3080</xdr:rowOff>
+      <xdr:rowOff>122551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>48576</xdr:colOff>
+      <xdr:colOff>180250</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>48787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="plot_847.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7597357" y="14029051"/>
+          <a:ext cx="7391093" cy="3355236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>414368</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>91498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>75748</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>276</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="plot_837.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7800041" y="13570397"/>
-          <a:ext cx="7240730" cy="3156708"/>
+      <xdr:rowOff>53036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="plot_853.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14816168" y="14925098"/>
+          <a:ext cx="7205180" cy="3415938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>454551</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>196828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330648</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>69397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="plot_874.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="454551" y="18281628"/>
+          <a:ext cx="7419897" cy="3530169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>493412</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>188192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>169244</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>59259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="plot_914.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7351412" y="18476192"/>
+          <a:ext cx="7905432" cy="3731867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -690,154 +822,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>498057</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>97151</xdr:rowOff>
+      <xdr:colOff>346927</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>110596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>485050</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>23387</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="plot_847.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14808789" y="13664468"/>
-          <a:ext cx="7483090" cy="3271602"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>541368</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>142298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>202748</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>103836</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="plot_853.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="541368" y="16683274"/>
-          <a:ext cx="7157478" cy="3121050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>556151</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>171428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>432248</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>43997</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="plot_874.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7370785" y="16712404"/>
-          <a:ext cx="7372195" cy="3217934"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>214012</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>86592</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>575644</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>160859</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="plot_914.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+      <xdr:colOff>641195</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="plot_936.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,52 +853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14524744" y="16813421"/>
-          <a:ext cx="7857729" cy="3419633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>92927</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>110596</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>387195</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="plot_936.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="92927" y="19811084"/>
-          <a:ext cx="7790366" cy="3420973"/>
+          <a:off x="14748727" y="18398596"/>
+          <a:ext cx="7838068" cy="3750554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" workbookViewId="0">
       <selection activeCell="W87" sqref="W87"/>
     </sheetView>
   </sheetViews>
